--- a/diancan.xlsx
+++ b/diancan.xlsx
@@ -6,355 +6,382 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="首页（菜单）" sheetId="1" r:id="rId4"/>
-    <sheet name="首页（订单）" sheetId="2" r:id="rId5"/>
-    <sheet name="下单页" sheetId="3" r:id="rId6"/>
-    <sheet name="订单详情页" sheetId="4" r:id="rId7"/>
-    <sheet name="非支付宝打开页" sheetId="5" r:id="rId8"/>
+    <sheet name="H5-首页" sheetId="1" r:id="rId4"/>
+    <sheet name="H5-下单页" sheetId="2" r:id="rId5"/>
+    <sheet name="H5-订单详情页" sheetId="3" r:id="rId6"/>
+    <sheet name="PC-桌台二维码" sheetId="4" r:id="rId7"/>
+    <sheet name="PC-商品管理" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+  <si>
+    <t>菜单</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>月销n  （n 代表已销售的份数）</t>
+  </si>
+  <si>
+    <t>n Sold Monthly</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>属性（菜品属性，如辣度甜度）</t>
+  </si>
+  <si>
+    <t>Preferences (Spiciness/Sweetness Level etc.)</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>TotalPrice</t>
+  </si>
+  <si>
+    <t>选好了</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>清空购物车</t>
+  </si>
+  <si>
+    <t>EmptyCart</t>
+  </si>
+  <si>
+    <t>当前门店已失效，请勿继续操作</t>
+  </si>
+  <si>
+    <t>This shop is no longer available. (???)</t>
+  </si>
+  <si>
+    <t>我知道了（弹窗里面的确认操作）</t>
+  </si>
+  <si>
+    <t>I Understand (Verification in Pop-up)</t>
+  </si>
+  <si>
+    <t>【菜品名称A】的名称/价格/规格已发生变化，请重新确认订单</t>
+  </si>
+  <si>
+    <t>[Dish A]'s Name/Price/Preference has changed.Please reconfirm the order</t>
+  </si>
+  <si>
+    <t>【菜品名称A】已停售，请重新确认订单</t>
+  </si>
+  <si>
+    <t>[Dish A] is no longer on sale.Please reconfirm the order.</t>
+  </si>
+  <si>
+    <t>【菜品名称A-规格】已停售，请重新确认订单</t>
+  </si>
+  <si>
+    <t>[Dish A-preference] is no longer on sale.Please reconfirm the order.</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>OrderTime</t>
+  </si>
+  <si>
+    <t>等n份菜品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etc Total: * </t>
+  </si>
+  <si>
+    <t>没有订单，请先进行点餐</t>
+  </si>
+  <si>
+    <t>No order yet, please order first</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>如有特殊要求，请告知商家~</t>
+  </si>
+  <si>
+    <t>Please inform merchant for any special requests</t>
+  </si>
+  <si>
+    <t>共4份</t>
+  </si>
+  <si>
+    <t>Total 4 Dishes</t>
+  </si>
+  <si>
+    <t>提交订单</t>
+  </si>
+  <si>
+    <t>Confirm Order</t>
+  </si>
+  <si>
+    <t>等待返回支付结果…</t>
+  </si>
+  <si>
+    <t>Processing payment...</t>
+  </si>
+  <si>
+    <t>支付失败，请重试</t>
+  </si>
+  <si>
+    <t>Payment failed, please try again</t>
+  </si>
+  <si>
+    <t>下单成功</t>
+  </si>
+  <si>
+    <t>Order Successful</t>
+  </si>
+  <si>
+    <t>支付完成</t>
+  </si>
+  <si>
+    <t>Payment Successful</t>
+  </si>
+  <si>
+    <t>取餐码</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>Alipay</t>
+  </si>
+  <si>
+    <t>智慧餐厅</t>
+  </si>
+  <si>
+    <t>Smart Restaurant</t>
+  </si>
+  <si>
+    <t>桌台二维码</t>
+  </si>
+  <si>
+    <t>Table QR Code</t>
+  </si>
+  <si>
+    <t>区域名称</t>
+  </si>
+  <si>
+    <t>Area Name</t>
+  </si>
+  <si>
+    <t>例：2楼A区</t>
+  </si>
+  <si>
+    <t>Example: 2nd Floor, District A</t>
+  </si>
+  <si>
+    <t>此内容展示在桌号之前，选填</t>
+  </si>
+  <si>
+    <t>This content is displayed before the table number，but not required</t>
+  </si>
+  <si>
+    <t>桌号范围</t>
+  </si>
+  <si>
+    <t>Table number range</t>
+  </si>
+  <si>
+    <t>起始桌号</t>
+  </si>
+  <si>
+    <t>First Table Number</t>
+  </si>
+  <si>
+    <t>至</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>结尾桌号</t>
+  </si>
+  <si>
+    <t>Last Table Number</t>
+  </si>
+  <si>
+    <t>请填写纯数字，如只需生成一张二维码，则不必填写结尾桌号</t>
+  </si>
+  <si>
+    <t>Total # of tables. If only 1 QR Code is required, leave "Last Table Number" field empty.</t>
+  </si>
+  <si>
+    <t>生成二维码</t>
+  </si>
+  <si>
+    <t>Generate QR Code</t>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
   <si>
     <t>扫码点餐</t>
   </si>
   <si>
-    <t>QR code food ordering</t>
-  </si>
-  <si>
-    <t>菜单</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>已售n  （n 代表已销售的份数）</t>
-  </si>
-  <si>
-    <t>Sold dishes n</t>
-  </si>
-  <si>
-    <t>选择规格</t>
-  </si>
-  <si>
-    <t>Choose options</t>
-  </si>
-  <si>
-    <t>重选规格</t>
-  </si>
-  <si>
-    <t>Reselect options</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>总价</t>
-  </si>
-  <si>
-    <t>Total price</t>
-  </si>
-  <si>
-    <t>选好了</t>
-  </si>
-  <si>
-    <t>Checkout</t>
-  </si>
-  <si>
-    <t>清空购物车</t>
-  </si>
-  <si>
-    <t>Empty cart</t>
-  </si>
-  <si>
-    <t>堂食</t>
-  </si>
-  <si>
-    <t>Eat in</t>
-  </si>
-  <si>
-    <t>取餐号</t>
-  </si>
-  <si>
-    <t>Pickup number</t>
-  </si>
-  <si>
-    <t>购买时间</t>
-  </si>
-  <si>
-    <t>Purchase time</t>
-  </si>
-  <si>
-    <t>支付成功</t>
-  </si>
-  <si>
-    <t>Payment successful</t>
-  </si>
-  <si>
-    <t>已退款</t>
-  </si>
-  <si>
-    <t>Already refunded</t>
-  </si>
-  <si>
-    <t>暂无订单</t>
-  </si>
-  <si>
-    <t>No order</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="华文宋体"/>
-      </rPr>
-      <t>订单多了往下拉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="华文宋体"/>
-      </rPr>
-      <t>查看更多</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">More orders, please refresh </t>
-  </si>
-  <si>
-    <t>我的订单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Order </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="华文宋体"/>
-      </rPr>
-      <t>我的订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="华文宋体"/>
-      </rPr>
-      <t>没有更多了</t>
-    </r>
-  </si>
-  <si>
-    <t>My Order - No order now</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="华文宋体"/>
-      </rPr>
-      <t>菜品名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="华文宋体"/>
-      </rPr>
-      <t>件商品、菜品名等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="华文宋体"/>
-      </rPr>
-      <t>件商品</t>
-    </r>
-  </si>
-  <si>
-    <t>菜品名 1 unit,菜品名 2 units</t>
-  </si>
-  <si>
-    <t>桌号</t>
-  </si>
-  <si>
-    <t>Table number</t>
-  </si>
-  <si>
-    <t>选填</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional </t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>如有特殊要求，请告知商家，最多50字</t>
-  </si>
-  <si>
-    <t>Add comments about extra requirements, up to 50 characters</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>支付宝支付</t>
-  </si>
-  <si>
-    <t>Pay with Alipay</t>
-  </si>
-  <si>
-    <t>确认下单</t>
-  </si>
-  <si>
-    <t>Confirm order</t>
-  </si>
-  <si>
-    <t>支付中...</t>
-  </si>
-  <si>
-    <t>Processing payment...</t>
-  </si>
-  <si>
-    <t>唤起支付宝失败，请稍后再试</t>
-  </si>
-  <si>
-    <t>The connection to Alipay failed, please try again later</t>
-  </si>
-  <si>
-    <t>暂时无法查询到订单，请稍后到我的订单中查看</t>
-  </si>
-  <si>
-    <t>The order is temporary unavailable, please reload the "my order" page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="华文宋体"/>
-      </rPr>
-      <t>客官，该店铺配置有些问题，无法进行交易（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1242</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="华文宋体"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>Configuration error, cannot proceed.</t>
-  </si>
-  <si>
-    <t>关闭订单详情</t>
-  </si>
-  <si>
-    <t>Close order details</t>
-  </si>
-  <si>
-    <t>查看订单详情</t>
-  </si>
-  <si>
-    <t>View order details</t>
-  </si>
-  <si>
-    <t>订单编号</t>
-  </si>
-  <si>
-    <t>Order number</t>
-  </si>
-  <si>
-    <t>支付方式</t>
-  </si>
-  <si>
-    <t>Payment method</t>
-  </si>
-  <si>
-    <t>欢迎光临本店</t>
-  </si>
-  <si>
-    <t>Welcome to our restaurant</t>
-  </si>
-  <si>
-    <t>Scan the QR code to order</t>
-  </si>
-  <si>
-    <t>请用支付宝客户端打开</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please scan this code with your Alipay wallet </t>
+    <t>QR Code Food Ordering</t>
+  </si>
+  <si>
+    <t>区域名称 桌号</t>
+  </si>
+  <si>
+    <t>Area Name, Table Number</t>
+  </si>
+  <si>
+    <t>扫一扫，码上自助点餐</t>
+  </si>
+  <si>
+    <t>Scan to order</t>
+  </si>
+  <si>
+    <t>二维码预览</t>
+  </si>
+  <si>
+    <t>Preview QR Code</t>
+  </si>
+  <si>
+    <t>商品管理</t>
+  </si>
+  <si>
+    <t>Product Management</t>
+  </si>
+  <si>
+    <t>上传引导</t>
+  </si>
+  <si>
+    <t>Upload User Guide</t>
+  </si>
+  <si>
+    <t>Step 1：下载批量导入数据所用的 Excel 模板</t>
+  </si>
+  <si>
+    <t>Step 1: Download excel template for batch import data</t>
+  </si>
+  <si>
+    <t>下载模板</t>
+  </si>
+  <si>
+    <t>Download template</t>
+  </si>
+  <si>
+    <t>仔细阅读模板中说明，按照模板要求填写完模板后，将模板文件拖入下方上传区域</t>
+  </si>
+  <si>
+    <t>Follow the instructions in the template to fill up the excel. Upload the excel file by dragging it into the area below</t>
+  </si>
+  <si>
+    <t>如模板中有错误数据导致导入失败，请下载错误数据，修改后重新上传</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there are errors in the template, the import will fail. Please download the file and make the necessary changes before reuploading.  </t>
+  </si>
+  <si>
+    <t>上传成功的菜品将显示在下面的列表中，点击图片可更换这些图片</t>
+  </si>
+  <si>
+    <t>Dishes uploaded successfully will be displayed in the list below, click on the images to replace the images</t>
+  </si>
+  <si>
+    <t>请将填写完成的模板文件拖放到此区域,或点击上传</t>
+  </si>
+  <si>
+    <t>Drag the completed excel template file to this area, or click Upload.</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>上传图片</t>
+  </si>
+  <si>
+    <t>Upload Image</t>
+  </si>
+  <si>
+    <t>价格（AED）</t>
+  </si>
+  <si>
+    <t>Price (AED)</t>
+  </si>
+  <si>
+    <t>规格（AED）</t>
+  </si>
+  <si>
+    <t>Specifications (AED)</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -364,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -382,18 +409,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="13"/>
-      <name val="华文宋体"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="13"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="华文宋体"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="5">
@@ -422,42 +444,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,115 +486,59 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
         <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,32 +548,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -646,49 +570,22 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,8 +610,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffd8d8d8"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1779,18 +1675,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="1" customWidth="1"/>
     <col min="3" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1798,84 +1694,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="22.25" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="22.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="29" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" t="s" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="22.25" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" t="s" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="22.25" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" t="s" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="22.25" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="22.25" customHeight="1">
-      <c r="A8" t="s" s="4">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" t="s" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="22.25" customHeight="1">
-      <c r="A9" t="s" s="4">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" t="s" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="22.25" customHeight="1">
-      <c r="A10" t="s" s="4">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" t="s" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="22.25" customHeight="1">
-      <c r="A11" t="s" s="4">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" t="s" s="4">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1892,95 +1836,63 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.1719" style="6" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.7656" style="5" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" ht="22.25" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="22.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" ht="22.25" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="22.25" customHeight="1">
-      <c r="A5" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="22.25" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B2" t="s" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B3" t="s" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B4" t="s" s="3">
         <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1997,103 +1909,79 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="61.5" style="9" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="9" customWidth="1"/>
+    <col min="1" max="1" width="34.6719" style="6" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="6" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" ht="22.25" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" ht="22.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B1" t="s" s="8">
         <v>47</v>
       </c>
     </row>
-    <row r="4" ht="22.25" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="9">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B2" t="s" s="10">
         <v>49</v>
       </c>
     </row>
-    <row r="5" ht="22.25" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B3" t="s" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="22.25" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B5" t="s" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="7" ht="22.25" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" t="s" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="8" ht="22.25" customHeight="1">
-      <c r="A8" t="s" s="4">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" t="s" s="3">
         <v>57</v>
-      </c>
-    </row>
-    <row r="9" ht="22.25" customHeight="1">
-      <c r="A9" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" ht="22.25" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" ht="25.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2110,95 +1998,143 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="61.5" style="10" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="10" customWidth="1"/>
+    <col min="1" max="1" width="30.6719" style="11" customWidth="1"/>
+    <col min="2" max="2" width="32.6719" style="11" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" ht="22.25" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="22.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B4" t="s" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="22.25" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B5" t="s" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="5" ht="22.25" customHeight="1">
-      <c r="A5" t="s" s="4">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" ht="22.25" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" ht="22.25" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B6" t="s" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="8" ht="22.25" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="22.25" customHeight="1">
-      <c r="A9" t="s" s="4">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B7" t="s" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="10" ht="22.25" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>53</v>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2212,100 +2148,147 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="61.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="11" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="11" customWidth="1"/>
+    <col min="1" max="1" width="32.6719" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.8516" style="12" customWidth="1"/>
+    <col min="3" max="256" width="10.8516" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
-      <c r="A1" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="22.25" customHeight="1">
-      <c r="A2" t="s" s="16">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" ht="31.95" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="9">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
